--- a/tacker/Tracker.xlsx
+++ b/tacker/Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mumair\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mumair\Downloads\repos\InstagramApplication\tacker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Video Status</t>
+  </si>
+  <si>
+    <t>Abhishek/Umair</t>
+  </si>
+  <si>
+    <t>Atiq/Umair</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E10:E13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>9</v>
@@ -653,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>9</v>
@@ -683,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>9</v>
@@ -698,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
